--- a/DMSNewVSale_2025-12-01_19-55.xlsx
+++ b/DMSNewVSale_2025-12-01_19-55.xlsx
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>12:0</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
   </si>
   <si>
     <t>FAYCID HAIR OIL 60 ML</t>
@@ -2891,7 +2897,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2905,10 +2911,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2917,14 +2923,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2934,11 +2940,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>11</v>
@@ -2950,14 +2956,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2967,7 +2973,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2990,7 +2996,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3000,14 +3006,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3016,14 +3022,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3049,14 +3055,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3066,14 +3072,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3082,7 +3088,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3099,11 +3105,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>11</v>
@@ -3115,14 +3121,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3132,14 +3138,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3148,14 +3154,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3165,14 +3171,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3181,14 +3187,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3198,14 +3204,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3221,7 +3227,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3231,14 +3237,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3247,14 +3253,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3287,7 +3293,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3301,10 +3307,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3313,14 +3319,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3353,7 +3359,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3363,14 +3369,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3379,14 +3385,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3396,11 +3402,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>11</v>
@@ -3412,14 +3418,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3429,11 +3435,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>11</v>
@@ -3445,7 +3451,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3462,11 +3468,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>11</v>
@@ -3478,14 +3484,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3495,14 +3501,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3511,7 +3517,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3528,14 +3534,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3544,14 +3550,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3561,14 +3567,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>114</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3577,14 +3583,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3594,14 +3600,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3610,14 +3616,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3627,14 +3633,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3643,14 +3649,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3676,14 +3682,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3693,14 +3699,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3709,14 +3715,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3726,14 +3732,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>11</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3742,14 +3748,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3759,11 +3765,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>11</v>
@@ -3775,28 +3781,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>11</v>
@@ -3808,28 +3814,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>11</v>
@@ -3841,14 +3847,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3858,14 +3864,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3881,7 +3887,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3907,31 +3913,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3940,28 +3946,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>11</v>
@@ -3973,14 +3979,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3990,11 +3996,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>11</v>
@@ -4006,14 +4012,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4023,14 +4029,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4039,14 +4045,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4056,11 +4062,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -4072,31 +4078,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4105,28 +4111,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>11</v>
@@ -4145,21 +4151,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>11</v>
@@ -4171,31 +4177,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4204,14 +4210,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4221,7 +4227,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4244,7 +4250,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4254,11 +4260,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>15</v>
@@ -4270,14 +4276,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4287,14 +4293,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4303,14 +4309,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4320,11 +4326,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>11</v>
@@ -4336,14 +4342,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4353,11 +4359,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>11</v>
@@ -4369,31 +4375,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4402,31 +4408,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4442,7 +4448,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4452,11 +4458,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>11</v>
@@ -4468,7 +4474,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4489,10 +4495,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4508,7 +4514,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4518,14 +4524,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4534,14 +4540,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4551,14 +4557,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4574,7 +4580,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4584,14 +4590,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4607,7 +4613,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4617,14 +4623,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4640,7 +4646,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4666,14 +4672,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4683,14 +4689,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4699,14 +4705,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4716,14 +4722,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>205</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4732,14 +4738,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4753,10 +4759,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4765,14 +4771,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4782,14 +4788,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4798,31 +4804,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4831,14 +4837,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4848,11 +4854,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>11</v>
@@ -4864,14 +4870,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4881,11 +4887,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>11</v>
@@ -4904,7 +4910,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4914,11 +4920,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>11</v>
@@ -4937,7 +4943,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4951,10 +4957,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,14 +4969,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4980,14 +4986,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4996,14 +5002,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5013,11 +5019,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>11</v>
@@ -5029,14 +5035,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5046,11 +5052,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>11</v>
@@ -5062,7 +5068,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5079,14 +5085,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>304</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5095,7 +5101,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5112,14 +5118,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>205</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5128,14 +5134,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5145,14 +5151,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5161,14 +5167,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5178,14 +5184,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5194,14 +5200,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5211,14 +5217,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5227,14 +5233,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5244,14 +5250,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,14 +5283,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5300,7 +5306,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5310,14 +5316,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>177</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5326,14 +5332,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5343,11 +5349,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>11</v>
@@ -5359,14 +5365,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5376,11 +5382,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>11</v>
@@ -5392,14 +5398,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5409,14 +5415,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5425,14 +5431,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5442,51 +5448,84 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" ht="25.5" customHeight="1">
-      <c r="N123" s="13">
-        <v>6992.8050000000003</v>
-      </c>
-      <c r="O123" s="13"/>
-      <c r="P123" s="13"/>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>325</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>141</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>53</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>326</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" ht="26.25" customHeight="1">
+      <c r="N124" s="13">
+        <v>7061.8050000000003</v>
+      </c>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>327</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>328</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>329</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6075,10 +6114,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
